--- a/medicine/Psychotrope/César_(cépage)/César_(cépage).xlsx
+++ b/medicine/Psychotrope/César_(cépage)/César_(cépage).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>C%C3%A9sar_(c%C3%A9page)</t>
+          <t>César_(cépage)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le césar est un cépage de raisin destiné à produire du vin rouge[1]. Il est également nommé « romain ».
+Le césar est un cépage de raisin destiné à produire du vin rouge. Il est également nommé « romain ».
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>C%C3%A9sar_(c%C3%A9page)</t>
+          <t>César_(cépage)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom vient du fait que le romain a été implanté en Bourgogne du nord, quand la Gaule a été conquise par les Romains.
 Une analyse ADN a montré que ce cépage serait un croisement naturel du pinot noir et de l'argant.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>C%C3%A9sar_(c%C3%A9page)</t>
+          <t>César_(cépage)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,11 +558,13 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cépage est planté sur 2 hectares, dans l'appellation Irancy.
-On retrouve le césar dans les appellations Coteaux Bourguignons[2], Bourgogne-Coulanges La Vineuse, Bourgogne-Chitry, Bourgogne-Épineuil ou encore Bourgogne-Côte d’Auxerre.
-Son clone agréé en France est le 1102[3].
+On retrouve le césar dans les appellations Coteaux Bourguignons, Bourgogne-Coulanges La Vineuse, Bourgogne-Chitry, Bourgogne-Épineuil ou encore Bourgogne-Côte d’Auxerre.
+Son clone agréé en France est le 1102.
 Des petites plantations sont aussi connues en Argentine et au Chili.
 </t>
         </is>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>C%C3%A9sar_(c%C3%A9page)</t>
+          <t>César_(cépage)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,9 +594,11 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les vins rouges d'appellation Irancy, dans l'Yonne, comportent du césar à hauteur de 10 % maximum[4]. Certains vignerons de Saint-Bris-le-Vineux produisent également du vin à base de césar sous l'appellation Bourgogne Côte d'Auxerre.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les vins rouges d'appellation Irancy, dans l'Yonne, comportent du césar à hauteur de 10 % maximum. Certains vignerons de Saint-Bris-le-Vineux produisent également du vin à base de césar sous l'appellation Bourgogne Côte d'Auxerre.
 </t>
         </is>
       </c>
@@ -591,7 +609,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>C%C3%A9sar_(c%C3%A9page)</t>
+          <t>César_(cépage)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,9 +627,11 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un cépage vigoureux, dont les rameaux sont très sensibles au vent, le palissage est nécessaire à sa conduite[5], le débourrement précoce du césar lui fait craindre les dernières gelée au début du printemps. Ses grappes sont très grosse avec des baies moyennes. Il est sensible au mildiou et à l'oïdium.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un cépage vigoureux, dont les rameaux sont très sensibles au vent, le palissage est nécessaire à sa conduite, le débourrement précoce du césar lui fait craindre les dernières gelée au début du printemps. Ses grappes sont très grosse avec des baies moyennes. Il est sensible au mildiou et à l'oïdium.
 </t>
         </is>
       </c>
@@ -622,7 +642,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>C%C3%A9sar_(c%C3%A9page)</t>
+          <t>César_(cépage)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -640,7 +660,9 @@
           <t>Vinification</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Sa vinification donne des vins fruités et tanniques, ayant un bon potentiel d'élevage.
 </t>
@@ -653,7 +675,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>C%C3%A9sar_(c%C3%A9page)</t>
+          <t>César_(cépage)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -671,7 +693,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Le césar est aussi connu sous les noms de : césar noir, gros monsieur, gros noir, hureau, lombard, picargneau, picargniol, picargniot, picarniau, picorneau, romain et ronçain.
 </t>
